--- a/Instances/03_NonStationary.xlsx
+++ b/Instances/03_NonStationary.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>15.52</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>28.96</v>
+        <v>0.1</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1680,7 +1680,7 @@
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>7.53</v>
+        <v>0.04</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>22.88</v>
+        <v>0.12</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>31.87</v>
+        <v>0.16</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>28.22</v>
+        <v>0.11</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>21.65</v>
+        <v>0.08</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>23.19</v>
+        <v>0.12</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>519</v>
+        <v>417</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>48.67</v>
+        <v>0.27</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1912,7 +1912,7 @@
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>66.69</v>
+        <v>0.22</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>33.15</v>
+        <v>0.11</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>42.41</v>
+        <v>0.16</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>28.81</v>
+        <v>0.11</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>20.46</v>
+        <v>0.09</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>19.36</v>
+        <v>0.08</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>35.13</v>
+        <v>0.14</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C4" t="n">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2346,16 +2346,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="D5" t="n">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="E5" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="D7" t="n">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" t="n">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2626,16 +2626,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="E10" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C11" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E11" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8249999999999998</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.075</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.707499999999999</v>
+        <v>1.8525</v>
       </c>
       <c r="C3" t="n">
-        <v>3.562499999999999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.654999999999998</v>
+        <v>6.839999999999998</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4749999999999999</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.674749999999999</v>
+        <v>4.268249999999998</v>
       </c>
       <c r="C4" t="n">
-        <v>5.623249999999998</v>
+        <v>2.913249999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>7.791249999999997</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.081249999999998</v>
+        <v>1.355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.588375</v>
+        <v>2.92315</v>
       </c>
       <c r="C5" t="n">
-        <v>23.643125</v>
+        <v>20.11815</v>
       </c>
       <c r="D5" t="n">
-        <v>9.543225</v>
+        <v>12.638325</v>
       </c>
       <c r="E5" t="n">
-        <v>6.706049999999999</v>
+        <v>1.117675</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.087822499999998</v>
+        <v>4.606987499999999</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.678312499999999</v>
+        <v>4.709364999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>5.426007499999999</v>
+        <v>2.5594375</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.605459499999998</v>
+        <v>2.342795</v>
       </c>
       <c r="C7" t="n">
-        <v>18.273801</v>
+        <v>24.24792825</v>
       </c>
       <c r="D7" t="n">
-        <v>19.32805875</v>
+        <v>7.848363249999999</v>
       </c>
       <c r="E7" t="n">
-        <v>9.722599249999998</v>
+        <v>8.785481249999998</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.9557651</v>
+        <v>7.303843399999998</v>
       </c>
       <c r="C8" t="n">
-        <v>6.521288749999998</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>12.390448625</v>
+        <v>16.43364765</v>
       </c>
       <c r="E8" t="n">
-        <v>3.782347474999999</v>
+        <v>1.695535075</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.8178053925</v>
+        <v>11.3906558</v>
       </c>
       <c r="C9" t="n">
-        <v>32.74813542499999</v>
+        <v>16.51645091</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.1423831975</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>11.2482726025</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17.152226308</v>
+        <v>0.7657243887499998</v>
       </c>
       <c r="C10" t="n">
-        <v>34.30445261599999</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>23.12487654024999</v>
       </c>
       <c r="E10" t="n">
-        <v>7.810388765249998</v>
+        <v>0.4594346332499999</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.838876378949999</v>
+        <v>15.794547827575</v>
       </c>
       <c r="C11" t="n">
-        <v>43.150053343375</v>
+        <v>48.52345621254999</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.001706768925</v>
       </c>
       <c r="E11" t="n">
-        <v>12.212279248125</v>
+        <v>10.909636128325</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>504</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>453.6</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>307.8</v>
+        <v>205.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>165.6</v>
+        <v>248.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>453.6</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934.2</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>680.4</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>185.4</v>
+        <v>741.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>226.8</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2152.8</v>
+        <v>1614.6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1557</v>
+        <v>934.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1236.6</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>226.8</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>370.8</v>
+        <v>927</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>311.4</v>
+        <v>1245.6</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_NonStationary.xlsx
+++ b/Instances/03_NonStationary.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07000000000000001</v>
+        <v>129.3935255812203</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>359.5110037185182</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04</v>
+        <v>213.114057094961</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04</v>
+        <v>131.9751206421606</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.12</v>
+        <v>241.388840979686</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.16</v>
+        <v>379.7947597029097</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.11</v>
+        <v>464.0125213276423</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08</v>
+        <v>297.1445642758216</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0.12</v>
+        <v>93.37787535092021</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0.27</v>
+        <v>148.9570684956238</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>576</v>
+        <v>390</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>0.22</v>
+        <v>92.68694621457681</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>0.11</v>
+        <v>174.7506606841636</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.16</v>
+        <v>227.6644183786141</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.11</v>
+        <v>281.5297535643069</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09</v>
+        <v>126.179272629984</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08</v>
+        <v>119.8431185197279</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.14</v>
+        <v>345.1729714370355</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2346,16 +2346,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="D5" t="n">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C7" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="D8" t="n">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C9" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2626,16 +2626,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>298</v>
+        <v>69</v>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.899999999999999</v>
+        <v>2.449999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>1.075</v>
+        <v>2.125</v>
       </c>
       <c r="E2" t="n">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.8525</v>
+        <v>5.937499999999998</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.839999999999998</v>
+        <v>0.04749999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4.322499999999999</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.268249999999998</v>
+        <v>3.319749999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>2.913249999999999</v>
+        <v>12.3305</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.100249999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1.355</v>
+        <v>2.371249999999999</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.92315</v>
+        <v>4.900575</v>
       </c>
       <c r="C5" t="n">
-        <v>20.11815</v>
+        <v>13.24015</v>
       </c>
       <c r="D5" t="n">
-        <v>12.638325</v>
+        <v>8.5975</v>
       </c>
       <c r="E5" t="n">
-        <v>1.117675</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.606987499999999</v>
+        <v>4.811742499999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.1023775</v>
       </c>
       <c r="D6" t="n">
-        <v>4.709364999999999</v>
+        <v>10.7496375</v>
       </c>
       <c r="E6" t="n">
-        <v>2.5594375</v>
+        <v>3.890344999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.342795</v>
+        <v>12.651093</v>
       </c>
       <c r="C7" t="n">
-        <v>24.24792825</v>
+        <v>23.42795</v>
       </c>
       <c r="D7" t="n">
-        <v>7.848363249999999</v>
+        <v>8.785481249999998</v>
       </c>
       <c r="E7" t="n">
-        <v>8.785481249999998</v>
+        <v>3.16277325</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.303843399999998</v>
+        <v>16.43364765</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>53.34414197499999</v>
       </c>
       <c r="D8" t="n">
-        <v>16.43364765</v>
+        <v>14.216409475</v>
       </c>
       <c r="E8" t="n">
-        <v>1.695535075</v>
+        <v>12.26002285</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.3906558</v>
+        <v>15.37738533</v>
       </c>
       <c r="C9" t="n">
-        <v>16.51645091</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1423831975</v>
+        <v>5.552944702499999</v>
       </c>
       <c r="E9" t="n">
-        <v>11.2482726025</v>
+        <v>6.834393479999999</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7657243887499998</v>
+        <v>9.494982420499998</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3.981766821499999</v>
       </c>
       <c r="D10" t="n">
-        <v>23.12487654024999</v>
+        <v>8.729258031749998</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4594346332499999</v>
+        <v>14.85505314175</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.794547827575</v>
+        <v>7.49019793885</v>
       </c>
       <c r="C11" t="n">
-        <v>48.52345621254999</v>
+        <v>11.235296908275</v>
       </c>
       <c r="D11" t="n">
-        <v>7.001706768925</v>
+        <v>8.304349888725</v>
       </c>
       <c r="E11" t="n">
-        <v>10.909636128325</v>
+        <v>10.4211449584</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>252</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>680.4</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>205.2</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>226.8</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1557</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>907.2</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741.6</v>
+        <v>556.2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1614.6</v>
+        <v>1076.4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2152.8</v>
+        <v>1614.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934.2</v>
+        <v>622.8000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2061</v>
+        <v>412.2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1134</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>226.8</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1245.6</v>
+        <v>934.2</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_NonStationary.xlsx
+++ b/Instances/03_NonStationary.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>129.3935255812203</v>
+        <v>9.068807384464581</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>359.5110037185182</v>
+        <v>30.44115561960525</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>213.114057094961</v>
+        <v>11.13348757978022</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>131.9751206421606</v>
+        <v>10.95496572479464</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>241.388840979686</v>
+        <v>12.55820690598778</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>379.7947597029097</v>
+        <v>22.04871359036192</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>464.0125213276423</v>
+        <v>26.55233620376481</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>297.1445642758216</v>
+        <v>16.2816726171368</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>93.37787535092021</v>
+        <v>7.078433537943046</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>294</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>148.9570684956238</v>
+        <v>7.254604605260596</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>92.68694621457681</v>
+        <v>5.522404694147012</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>174.7506606841636</v>
+        <v>11.19283412884114</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>227.6644183786141</v>
+        <v>17.04798455795642</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>281.5297535643069</v>
+        <v>12.96492043566399</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>126.179272629984</v>
+        <v>8.036172902135519</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>119.8431185197279</v>
+        <v>8.70695969979538</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>345.1729714370355</v>
+        <v>20.31467997146375</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C4" t="n">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2346,16 +2346,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="D6" t="n">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2626,16 +2626,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>321</v>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="C11" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="E11" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.449999999999999</v>
+        <v>2.35</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8499999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.125</v>
+        <v>0.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.9499999999999997</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.937499999999998</v>
+        <v>0.5224999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.367499999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04749999999999999</v>
+        <v>2.089999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>4.322499999999999</v>
+        <v>4.179999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.319749999999999</v>
+        <v>6.436249999999998</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3305</v>
+        <v>11.58525</v>
       </c>
       <c r="D4" t="n">
-        <v>2.100249999999999</v>
+        <v>6.368499999999997</v>
       </c>
       <c r="E4" t="n">
-        <v>2.371249999999999</v>
+        <v>8.333249999999998</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.900575</v>
+        <v>0.429875</v>
       </c>
       <c r="C5" t="n">
-        <v>13.24015</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>8.5975</v>
+        <v>5.072525</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.33045</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.811742499999999</v>
+        <v>4.50461</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1023775</v>
+        <v>15.8685125</v>
       </c>
       <c r="D6" t="n">
-        <v>10.7496375</v>
+        <v>5.937894999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>3.890344999999999</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.651093</v>
+        <v>5.97412725</v>
       </c>
       <c r="C7" t="n">
-        <v>23.42795</v>
+        <v>12.53395325</v>
       </c>
       <c r="D7" t="n">
-        <v>8.785481249999998</v>
+        <v>5.856987499999999</v>
       </c>
       <c r="E7" t="n">
-        <v>3.16277325</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16.43364765</v>
+        <v>13.0425775</v>
       </c>
       <c r="C8" t="n">
-        <v>53.34414197499999</v>
+        <v>10.69491355</v>
       </c>
       <c r="D8" t="n">
-        <v>14.216409475</v>
+        <v>3.391070149999999</v>
       </c>
       <c r="E8" t="n">
-        <v>12.26002285</v>
+        <v>14.477261025</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.37738533</v>
+        <v>8.258225454999998</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>44.28117442249999</v>
       </c>
       <c r="D9" t="n">
-        <v>5.552944702499999</v>
+        <v>1.8509815675</v>
       </c>
       <c r="E9" t="n">
-        <v>6.834393479999999</v>
+        <v>8.115842257499999</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.494982420499998</v>
+        <v>22.51229702924999</v>
       </c>
       <c r="C10" t="n">
-        <v>3.981766821499999</v>
+        <v>49.15950575774999</v>
       </c>
       <c r="D10" t="n">
-        <v>8.729258031749998</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.85505314175</v>
+        <v>4.134911699249999</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.49019793885</v>
+        <v>16.9343605574</v>
       </c>
       <c r="C11" t="n">
-        <v>11.235296908275</v>
+        <v>10.09548417845</v>
       </c>
       <c r="D11" t="n">
-        <v>8.304349888725</v>
+        <v>28.6581486356</v>
       </c>
       <c r="E11" t="n">
-        <v>10.4211449584</v>
+        <v>0.488491169925</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>126</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>453.6</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513</v>
+        <v>410.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>248.4</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>453.6</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>311.4</v>
+        <v>622.8000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1134</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>556.2</v>
+        <v>741.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1134</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1076.4</v>
+        <v>538.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1614.6</v>
+        <v>2152.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>453.6</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680.4</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>927</v>
+        <v>370.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>934.2</v>
+        <v>311.4</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_NonStationary.xlsx
+++ b/Instances/03_NonStationary.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>9.068807384464581</v>
+        <v>82.91554432290668</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>141</v>
+        <v>263</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>30.44115561960525</v>
+        <v>219.4454439864003</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>11.13348757978022</v>
+        <v>108.1461994028066</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>10.95496572479464</v>
+        <v>83.15553378876129</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>12.55820690598778</v>
+        <v>97.47155887343571</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>183</v>
+        <v>309</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>22.04871359036192</v>
+        <v>168.0970114301137</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>26.55233620376481</v>
+        <v>231.9928118290263</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>16.2816726171368</v>
+        <v>180.0058022706442</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>7.078433537943046</v>
+        <v>63.61578530103497</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>294</v>
+        <v>572</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>7.254604605260596</v>
+        <v>72.16003760183848</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>387</v>
+        <v>572</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>5.522404694147012</v>
+        <v>51.37581873955414</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>11.19283412884114</v>
+        <v>89.36027761724091</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>245</v>
+        <v>465</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>17.04798455795642</v>
+        <v>132.9615188730164</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>12.96492043566399</v>
+        <v>106.4279654277953</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>8.036172902135519</v>
+        <v>63.50500489506241</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>8.70695969979538</v>
+        <v>59.1767991895812</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>20.31467997146375</v>
+        <v>180.0134334660407</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="C3" t="n">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C4" t="n">
-        <v>171</v>
+        <v>363</v>
       </c>
       <c r="D4" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E4" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2346,16 +2346,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C6" t="n">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="E8" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2626,16 +2626,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="C10" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C11" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D11" t="n">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.35</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>1.625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9499999999999997</v>
+        <v>1.75</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5224999999999999</v>
+        <v>5.509999999999998</v>
       </c>
       <c r="C3" t="n">
-        <v>5.367499999999999</v>
+        <v>4.132499999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>2.089999999999999</v>
+        <v>3.704999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>4.179999999999999</v>
+        <v>2.137499999999999</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.436249999999998</v>
+        <v>10.50125</v>
       </c>
       <c r="C4" t="n">
-        <v>11.58525</v>
+        <v>24.59324999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>6.368499999999997</v>
+        <v>5.013499999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>8.333249999999998</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.429875</v>
+        <v>9.285299999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>31.380875</v>
       </c>
       <c r="D5" t="n">
-        <v>5.072525</v>
+        <v>1.461575</v>
       </c>
       <c r="E5" t="n">
-        <v>5.33045</v>
+        <v>2.23535</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.50461</v>
+        <v>10.032995</v>
       </c>
       <c r="C6" t="n">
-        <v>15.8685125</v>
+        <v>5.528384999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>5.937894999999999</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.071324999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.97412725</v>
+        <v>1.405677</v>
       </c>
       <c r="C7" t="n">
-        <v>12.53395325</v>
+        <v>6.44268625</v>
       </c>
       <c r="D7" t="n">
-        <v>5.856987499999999</v>
+        <v>13.00251225</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3.865611749999999</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.0425775</v>
+        <v>8.347249599999998</v>
       </c>
       <c r="C8" t="n">
-        <v>10.69491355</v>
+        <v>31.95431487499999</v>
       </c>
       <c r="D8" t="n">
-        <v>3.391070149999999</v>
+        <v>14.998964125</v>
       </c>
       <c r="E8" t="n">
-        <v>14.477261025</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.258225454999998</v>
+        <v>6.692010282499999</v>
       </c>
       <c r="C9" t="n">
-        <v>44.28117442249999</v>
+        <v>15.94691812</v>
       </c>
       <c r="D9" t="n">
-        <v>1.8509815675</v>
+        <v>10.6787398125</v>
       </c>
       <c r="E9" t="n">
-        <v>8.115842257499999</v>
+        <v>3.986729529999999</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.51229702924999</v>
+        <v>9.341837542749998</v>
       </c>
       <c r="C10" t="n">
-        <v>49.15950575774999</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.909752677249999</v>
       </c>
       <c r="E10" t="n">
-        <v>4.134911699249999</v>
+        <v>7.504099009749998</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9343605574</v>
+        <v>17.91134289725</v>
       </c>
       <c r="C11" t="n">
-        <v>10.09548417845</v>
+        <v>14.817565487725</v>
       </c>
       <c r="D11" t="n">
-        <v>28.6581486356</v>
+        <v>19.86530757695</v>
       </c>
       <c r="E11" t="n">
-        <v>0.488491169925</v>
+        <v>10.74680573835</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>378</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>907.2</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>410.4</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>82.8</v>
+        <v>331.2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1134</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>453.6</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741.6</v>
+        <v>185.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680.4</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>538.2</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2152.8</v>
+        <v>1614.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>622.8000000000001</v>
+        <v>934.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>412.2</v>
+        <v>824.4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>907.2</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>370.8</v>
+        <v>185.4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>311.4</v>
+        <v>934.2</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_NonStationary.xlsx
+++ b/Instances/03_NonStationary.xlsx
@@ -1622,7 +1622,7 @@
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>82.91554432290668</v>
+        <v>83.09624709123415</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1651,7 +1651,7 @@
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>219.4454439864003</v>
+        <v>237.3905889132883</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1680,7 +1680,7 @@
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>108.1461994028066</v>
+        <v>90.37207200580966</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1709,7 +1709,7 @@
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>83.15553378876129</v>
+        <v>85.55532856311866</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1738,7 +1738,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>97.47155887343571</v>
+        <v>143.56394735029</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1767,7 +1767,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0970114301137</v>
+        <v>148.5882165317712</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1796,7 +1796,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>231.9928118290263</v>
+        <v>171.6041740246463</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>180.0058022706442</v>
+        <v>141.9206893691094</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1854,7 +1854,7 @@
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>63.61578530103497</v>
+        <v>46.61411410748293</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1883,7 +1883,7 @@
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>72.16003760183848</v>
+        <v>58.69322969489814</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1912,7 +1912,7 @@
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>51.37581873955414</v>
+        <v>53.15210316038266</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1941,7 +1941,7 @@
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>89.36027761724091</v>
+        <v>81.15041788843035</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1970,7 +1970,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>132.9615188730164</v>
+        <v>138.4503118614466</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1999,7 +1999,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>106.4279654277953</v>
+        <v>115.3733925256287</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2028,7 +2028,7 @@
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>63.50500489506241</v>
+        <v>68.91914062873546</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2057,7 +2057,7 @@
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>59.1767991895812</v>
+        <v>59.71777285815109</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2086,7 +2086,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>180.0134334660407</v>
+        <v>184.7795391221664</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C4" t="n">
-        <v>363</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2346,16 +2346,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="D7" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C8" t="n">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="D8" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C9" t="n">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2626,16 +2626,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5249999999999999</v>
+        <v>1.325</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="D2" t="n">
-        <v>1.625</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.509999999999998</v>
+        <v>2.279999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>4.132499999999999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.704999999999999</v>
+        <v>1.3775</v>
       </c>
       <c r="E3" t="n">
-        <v>2.137499999999999</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.50125</v>
+        <v>8.536499999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>24.59324999999999</v>
+        <v>0.9484999999999997</v>
       </c>
       <c r="D4" t="n">
-        <v>5.013499999999999</v>
+        <v>7.384749999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5.623249999999998</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.285299999999999</v>
+        <v>1.20365</v>
       </c>
       <c r="C5" t="n">
-        <v>31.380875</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.461575</v>
+        <v>12.122475</v>
       </c>
       <c r="E5" t="n">
-        <v>2.23535</v>
+        <v>5.588375</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.032995</v>
+        <v>4.0951</v>
       </c>
       <c r="C6" t="n">
-        <v>5.528384999999999</v>
+        <v>17.404175</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>8.292577499999998</v>
       </c>
       <c r="E6" t="n">
-        <v>3.071324999999999</v>
+        <v>4.606987499999999</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.405677</v>
+        <v>15.34530725</v>
       </c>
       <c r="C7" t="n">
-        <v>6.44268625</v>
+        <v>27.176422</v>
       </c>
       <c r="D7" t="n">
-        <v>13.00251225</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.865611749999999</v>
+        <v>11.4796955</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.347249599999998</v>
+        <v>9.521081574999997</v>
       </c>
       <c r="C8" t="n">
-        <v>31.95431487499999</v>
+        <v>23.86791682499999</v>
       </c>
       <c r="D8" t="n">
-        <v>14.998964125</v>
+        <v>13.955557925</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>12.129597075</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.692010282499999</v>
+        <v>16.6588341075</v>
       </c>
       <c r="C9" t="n">
-        <v>15.94691812</v>
+        <v>5.980094294999999</v>
       </c>
       <c r="D9" t="n">
-        <v>10.6787398125</v>
+        <v>3.2748135425</v>
       </c>
       <c r="E9" t="n">
-        <v>3.986729529999999</v>
+        <v>9.254907837499998</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.341837542749998</v>
+        <v>7.810388765249998</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>11.17957607575</v>
       </c>
       <c r="D10" t="n">
-        <v>2.909752677249999</v>
+        <v>3.675477065999999</v>
       </c>
       <c r="E10" t="n">
-        <v>7.504099009749998</v>
+        <v>3.062897554999999</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17.91134289725</v>
+        <v>7.001706768925</v>
       </c>
       <c r="C11" t="n">
-        <v>14.817565487725</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>19.86530757695</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>10.74680573835</v>
+        <v>7.815858718799999</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>126</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331.2</v>
+        <v>248.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>907.2</v>
+        <v>680.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>622.8000000000001</v>
+        <v>1245.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>185.4</v>
+        <v>741.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>226.8</v>
+        <v>453.6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2691</v>
+        <v>1076.4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1614.6</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934.2</v>
+        <v>311.4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>824.4</v>
+        <v>412.2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>226.8</v>
+        <v>907.2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>185.4</v>
+        <v>556.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>934.2</v>
+        <v>311.4</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_NonStationary.xlsx
+++ b/Instances/03_NonStationary.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>83.09624709123415</v>
+        <v>72.76500000000001</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>263</v>
+        <v>373</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>237.3905889132883</v>
+        <v>156.20121</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>90.37207200580966</v>
+        <v>124.54785</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>85.55532856311866</v>
+        <v>121.178322</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>143.56394735029</v>
+        <v>91.36799999999999</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>148.5882165317712</v>
+        <v>199.55025</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>171.6041740246463</v>
+        <v>150.49071</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1819,13 +1819,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>141.9206893691094</v>
+        <v>228.67596</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>46.61411410748293</v>
+        <v>41.877</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>58.69322969489814</v>
+        <v>73.791</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>53.15210316038266</v>
+        <v>49.19399999999999</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>81.15041788843035</v>
+        <v>93.40649999999999</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>138.4503118614466</v>
+        <v>144.7875</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>115.3733925256287</v>
+        <v>91.36799999999999</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>68.91914062873546</v>
+        <v>57.21921</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>59.71777285815109</v>
+        <v>87.79940999999999</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>184.7795391221664</v>
+        <v>199.55025</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="D2" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2346,16 +2346,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="C7" t="n">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C8" t="n">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="D8" t="n">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="E9" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2626,16 +2626,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E11" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.325</v>
+        <v>1.8</v>
       </c>
       <c r="C2" t="n">
-        <v>1.95</v>
+        <v>3.524999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>3.799999999999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.774999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.279999999999999</v>
+        <v>3.562499999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10.2125</v>
       </c>
       <c r="D3" t="n">
-        <v>1.3775</v>
+        <v>3.277499999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.235</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.536499999999997</v>
+        <v>0.8807499999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9484999999999997</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.384749999999998</v>
+        <v>5.690999999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>5.623249999999998</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.20365</v>
+        <v>7.135924999999999</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>12.122475</v>
+        <v>7.651775</v>
       </c>
       <c r="E5" t="n">
-        <v>5.588375</v>
+        <v>3.26705</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.0951</v>
+        <v>5.323629999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>17.404175</v>
+        <v>3.583212499999999</v>
       </c>
       <c r="D6" t="n">
-        <v>8.292577499999998</v>
+        <v>8.394954999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>4.606987499999999</v>
+        <v>8.190199999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.34530725</v>
+        <v>8.668341499999999</v>
       </c>
       <c r="C7" t="n">
-        <v>27.176422</v>
+        <v>5.271288749999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.342795</v>
       </c>
       <c r="E7" t="n">
-        <v>11.4796955</v>
+        <v>22.13941275</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.521081574999997</v>
+        <v>5.999585649999998</v>
       </c>
       <c r="C8" t="n">
-        <v>23.86791682499999</v>
+        <v>14.477261025</v>
       </c>
       <c r="D8" t="n">
-        <v>13.955557925</v>
+        <v>5.347456774999999</v>
       </c>
       <c r="E8" t="n">
-        <v>12.129597075</v>
+        <v>6.130011424999998</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.6588341075</v>
+        <v>6.834393479999999</v>
       </c>
       <c r="C9" t="n">
-        <v>5.980094294999999</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.2748135425</v>
+        <v>17.7978996875</v>
       </c>
       <c r="E9" t="n">
-        <v>9.254907837499998</v>
+        <v>3.132430345</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.810388765249998</v>
+        <v>12.864169731</v>
       </c>
       <c r="C10" t="n">
-        <v>11.17957607575</v>
+        <v>18.989964841</v>
       </c>
       <c r="D10" t="n">
-        <v>3.675477065999999</v>
+        <v>15.6207775305</v>
       </c>
       <c r="E10" t="n">
-        <v>3.062897554999999</v>
+        <v>5.819505354499999</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.001706768925</v>
+        <v>6.676045988975</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>28.495318245625</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.630010668675</v>
       </c>
       <c r="E11" t="n">
-        <v>7.815858718799999</v>
+        <v>13.514922367925</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>378</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>453.6</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>102.6</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>248.4</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680.4</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1245.6</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>680.4</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741.6</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>453.6</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1076.4</v>
+        <v>8198.999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2691</v>
+        <v>8198.999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>311.4</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>412.2</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>680.4</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>907.2</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>556.2</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>311.4</v>
+        <v>9435</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_NonStationary.xlsx
+++ b/Instances/03_NonStationary.xlsx
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>72.76500000000001</v>
+        <v>43.626</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>156.20121</v>
+        <v>137.171496</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>124.54785</v>
+        <v>56.43672000000001</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>121.178322</v>
+        <v>64.220688</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>91.36799999999999</v>
+        <v>80.23680000000002</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>199.55025</v>
+        <v>104.6784</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1796,7 +1796,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>150.49071</v>
+        <v>132.156696</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>228.67596</v>
+        <v>112.19616</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1854,7 +1854,7 @@
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>41.877</v>
+        <v>36.77520000000001</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1883,7 +1883,7 @@
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>73.791</v>
+        <v>46.7856</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1912,7 +1912,7 @@
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>49.19399999999999</v>
+        <v>31.1904</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1941,7 +1941,7 @@
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>93.40649999999999</v>
+        <v>48.9984</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>144.7875</v>
+        <v>93.16800000000001</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1999,7 +1999,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>91.36799999999999</v>
+        <v>80.23680000000002</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2028,7 +2028,7 @@
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>57.21921</v>
+        <v>50.24829600000002</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2057,7 +2057,7 @@
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>87.79940999999999</v>
+        <v>43.07736</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2086,7 +2086,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>199.55025</v>
+        <v>104.6784</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2346,16 +2346,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>106</v>
+      </c>
+      <c r="E6" t="n">
         <v>52</v>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>82</v>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D8" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2626,16 +2626,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C10" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D10" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C11" t="n">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>1.275</v>
       </c>
       <c r="C2" t="n">
-        <v>3.524999999999999</v>
+        <v>1.925</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>2.774999999999999</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.562499999999999</v>
+        <v>4.227499999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>10.2125</v>
+        <v>1.757499999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>3.277499999999999</v>
+        <v>1.8525</v>
       </c>
       <c r="E3" t="n">
-        <v>1.235</v>
+        <v>8.882499999999997</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8807499999999997</v>
+        <v>5.894249999999998</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18.83449999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>5.690999999999998</v>
+        <v>7.858999999999997</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3.726249999999999</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.135924999999999</v>
+        <v>2.665225</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>22.095575</v>
       </c>
       <c r="D5" t="n">
-        <v>7.651775</v>
+        <v>0.85975</v>
       </c>
       <c r="E5" t="n">
-        <v>3.26705</v>
+        <v>7.2219</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>2.7641925</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.433285</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.852015</v>
+      </c>
+      <c r="E6" t="n">
         <v>5.323629999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.583212499999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.394954999999998</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8.190199999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.668341499999999</v>
+        <v>6.091266999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>5.271288749999999</v>
+        <v>23.54508975</v>
       </c>
       <c r="D7" t="n">
-        <v>2.342795</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>22.13941275</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.999585649999998</v>
+        <v>5.217030999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>14.477261025</v>
+        <v>17.2162023</v>
       </c>
       <c r="D8" t="n">
-        <v>5.347456774999999</v>
+        <v>8.868952699999998</v>
       </c>
       <c r="E8" t="n">
-        <v>6.130011424999998</v>
+        <v>6.521288749999998</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.834393479999999</v>
+        <v>19.2217316625</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>13.5264037625</v>
       </c>
       <c r="D9" t="n">
-        <v>17.7978996875</v>
+        <v>7.973459059999999</v>
       </c>
       <c r="E9" t="n">
-        <v>3.132430345</v>
+        <v>11.8178053925</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.864169731</v>
+        <v>9.954417053749998</v>
       </c>
       <c r="C10" t="n">
-        <v>18.989964841</v>
+        <v>14.701908264</v>
       </c>
       <c r="D10" t="n">
-        <v>15.6207775305</v>
+        <v>17.61166094124999</v>
       </c>
       <c r="E10" t="n">
-        <v>5.819505354499999</v>
+        <v>5.053780965749999</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.676045988975</v>
+        <v>13.6777527579</v>
       </c>
       <c r="C11" t="n">
-        <v>28.495318245625</v>
+        <v>33.54306033485</v>
       </c>
       <c r="D11" t="n">
-        <v>8.630010668675</v>
+        <v>5.536233259149999</v>
       </c>
       <c r="E11" t="n">
-        <v>13.514922367925</v>
+        <v>14.00341353785</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1176</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3384</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1330</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1902</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4230</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7548</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3384</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2598</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1692</v>
+        <v>6965</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8198.999999999998</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8198.999999999998</v>
+        <v>16245</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7548</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4290</v>
+        <v>7764.000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>846</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>846</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5196</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9435</v>
+        <v>7424</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_NonStationary.xlsx
+++ b/Instances/03_NonStationary.xlsx
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>43.626</v>
+        <v>18.28588235294118</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>137.171496</v>
+        <v>61.74773647058824</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>56.43672000000001</v>
+        <v>24.12980705882353</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>64.220688</v>
+        <v>21.52682258823529</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>80.23680000000002</v>
+        <v>36.11858823529412</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1761,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>104.6784</v>
+        <v>41.16094117647059</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1796,7 +1796,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>132.156696</v>
+        <v>59.49032470588236</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>112.19616</v>
+        <v>42.50733176470588</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>36.77520000000001</v>
+        <v>16.55435294117647</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>46.7856</v>
+        <v>19.53882352941176</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>31.1904</v>
+        <v>13.02588235294118</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>48.9984</v>
+        <v>19.26682352941177</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1964,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>93.16800000000001</v>
+        <v>38.87294117647059</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>80.23680000000002</v>
+        <v>36.11858823529412</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>50.24829600000002</v>
+        <v>22.61926588235294</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>43.07736</v>
+        <v>16.32055529411765</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>104.6784</v>
+        <v>41.16094117647059</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2112,7 +2112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C2" t="n">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="E3" t="n">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="D4" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2346,16 +2346,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="D6" t="n">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E6" t="n">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C7" t="n">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="C8" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="C9" t="n">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2626,16 +2626,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C10" t="n">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="E11" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2730,6 +2730,566 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>80</v>
+      </c>
+      <c r="D12" t="n">
+        <v>56</v>
+      </c>
+      <c r="E12" t="n">
+        <v>72</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>68</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>109</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>67</v>
+      </c>
+      <c r="E14" t="n">
+        <v>37</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>138</v>
+      </c>
+      <c r="C15" t="n">
+        <v>356</v>
+      </c>
+      <c r="D15" t="n">
+        <v>63</v>
+      </c>
+      <c r="E15" t="n">
+        <v>60</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>72</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" t="n">
+        <v>80</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>94</v>
+      </c>
+      <c r="C17" t="n">
+        <v>237</v>
+      </c>
+      <c r="D17" t="n">
+        <v>79</v>
+      </c>
+      <c r="E17" t="n">
+        <v>61</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>74</v>
+      </c>
+      <c r="C18" t="n">
+        <v>168</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>78</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>73</v>
+      </c>
+      <c r="C19" t="n">
+        <v>116</v>
+      </c>
+      <c r="D19" t="n">
+        <v>99</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>74</v>
+      </c>
+      <c r="C20" t="n">
+        <v>179</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>120</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>62</v>
+      </c>
+      <c r="C21" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" t="n">
+        <v>102</v>
+      </c>
+      <c r="E21" t="n">
+        <v>134</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2744,7 +3304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2810,16 +3370,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.275</v>
+        <v>1.125</v>
       </c>
       <c r="C2" t="n">
-        <v>1.925</v>
+        <v>3.999999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5249999999999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.9499999999999997</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2866,16 +3426,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.227499999999999</v>
+        <v>4.797499999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>1.757499999999999</v>
+        <v>11.495</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8525</v>
+        <v>5.889999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>8.882499999999997</v>
+        <v>1.52</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2922,16 +3482,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.894249999999998</v>
+        <v>2.777749999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>18.83449999999999</v>
+        <v>7.723499999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>7.858999999999997</v>
+        <v>7.452499999999997</v>
       </c>
       <c r="E4" t="n">
-        <v>3.726249999999999</v>
+        <v>0.4742499999999998</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2978,16 +3538,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.665225</v>
+        <v>6.01825</v>
       </c>
       <c r="C5" t="n">
-        <v>22.095575</v>
+        <v>3.439</v>
       </c>
       <c r="D5" t="n">
-        <v>0.85975</v>
+        <v>2.493275</v>
       </c>
       <c r="E5" t="n">
-        <v>7.2219</v>
+        <v>11.6926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3034,16 +3594,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.7641925</v>
+        <v>10.9543925</v>
       </c>
       <c r="C6" t="n">
-        <v>1.433285</v>
+        <v>30.508495</v>
       </c>
       <c r="D6" t="n">
-        <v>10.852015</v>
+        <v>13.6162075</v>
       </c>
       <c r="E6" t="n">
-        <v>5.323629999999999</v>
+        <v>8.497332499999999</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3090,16 +3650,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.091266999999999</v>
+        <v>10.308298</v>
       </c>
       <c r="C7" t="n">
-        <v>23.54508975</v>
+        <v>33.61910825</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>9.722599249999998</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4.09989125</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3146,16 +3706,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.217030999999999</v>
+        <v>14.998964125</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2162023</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>8.868952699999998</v>
+        <v>11.21661665</v>
       </c>
       <c r="E8" t="n">
-        <v>6.521288749999998</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3202,16 +3762,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.2217316625</v>
+        <v>8.542991849999998</v>
       </c>
       <c r="C9" t="n">
-        <v>13.5264037625</v>
+        <v>37.87393053499999</v>
       </c>
       <c r="D9" t="n">
-        <v>7.973459059999999</v>
+        <v>0.5695327899999999</v>
       </c>
       <c r="E9" t="n">
-        <v>11.8178053925</v>
+        <v>4.556262319999999</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3258,16 +3818,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.954417053749998</v>
+        <v>10.87328632025</v>
       </c>
       <c r="C10" t="n">
-        <v>14.701908264</v>
+        <v>35.22332188249999</v>
       </c>
       <c r="D10" t="n">
-        <v>17.61166094124999</v>
+        <v>7.044664376499998</v>
       </c>
       <c r="E10" t="n">
-        <v>5.053780965749999</v>
+        <v>7.197809254249998</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -3314,16 +3874,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.6777527579</v>
+        <v>0.488491169925</v>
       </c>
       <c r="C11" t="n">
-        <v>33.54306033485</v>
+        <v>41.847410223575</v>
       </c>
       <c r="D11" t="n">
-        <v>5.536233259149999</v>
+        <v>22.7962545965</v>
       </c>
       <c r="E11" t="n">
-        <v>14.00341353785</v>
+        <v>4.070759749375</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3362,6 +3922,566 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13.7237880782</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.606651654739998</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.35140927038</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.870281854076</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.198697879823</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20.32341561780347</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.49237473754892</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.898774108795674</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>26.60750660303845</v>
+      </c>
+      <c r="C15" t="n">
+        <v>68.6396547150847</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12.14690518834364</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.56848113175585</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14.29395962229632</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.183799386739715</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15.88217735810702</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19.14540255619817</v>
+      </c>
+      <c r="C17" t="n">
+        <v>48.27085538105284</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16.09028512701761</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12.42414421200094</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15.41472138556168</v>
+      </c>
+      <c r="C18" t="n">
+        <v>34.99558368614004</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16.24794956856502</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15.51077290582976</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24.64725557638702</v>
+      </c>
+      <c r="D19" t="n">
+        <v>21.03515777639927</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>16.00092432230496</v>
+      </c>
+      <c r="C20" t="n">
+        <v>38.70493856341336</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>25.94744484698102</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13.61556185384618</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21.96058363523577</v>
+      </c>
+      <c r="D21" t="n">
+        <v>22.39979530794048</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29.42718207121593</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3394,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>661</v>
+        <v>706.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5572</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +4530,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1130</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +4538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3150</v>
+        <v>538.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +4546,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2786</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3434,7 +4554,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9280</v>
+        <v>5583.000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3442,7 +4562,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1393</v>
+        <v>6396</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3450,7 +4570,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4780</v>
+        <v>1154.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3458,7 +4578,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6965</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3466,7 +4586,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3249</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3474,7 +4594,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16245</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3482,7 +4602,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5568</v>
+        <v>5583.000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3490,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7764.000000000001</v>
+        <v>11014</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3498,7 +4618,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4179</v>
+        <v>6396</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3506,7 +4626,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1393</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3514,7 +4634,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4780</v>
+        <v>5772.5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3522,7 +4642,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7424</v>
+        <v>7444.000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3661,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3720,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3779,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3897,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3956,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4015,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4074,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4133,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4192,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -4310,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -4369,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -4487,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>

--- a/Instances/03_NonStationary.xlsx
+++ b/Instances/03_NonStationary.xlsx
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>18.28588235294118</v>
+        <v>14.90823529411765</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1645,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>405</v>
+        <v>170</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>61.74773647058824</v>
+        <v>42.20780235294118</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1674,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>24.12980705882353</v>
+        <v>17.39226352941176</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>21.52682258823529</v>
+        <v>19.46808282352941</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1738,7 +1738,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>36.11858823529412</v>
+        <v>24.68894117647059</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1767,7 +1767,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>41.16094117647059</v>
+        <v>33.33129411764705</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1796,7 +1796,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>59.49032470588236</v>
+        <v>40.66474352941177</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1825,7 +1825,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>42.50733176470588</v>
+        <v>34.27832470588235</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>156</v>
+        <v>304</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>16.55435294117647</v>
+        <v>11.31576470588235</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1877,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>19.53882352941176</v>
+        <v>14.68235294117647</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>13.02588235294118</v>
+        <v>9.788235294117648</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>400</v>
+        <v>226</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>19.26682352941177</v>
+        <v>15.60188235294117</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1970,7 +1970,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>38.87294117647059</v>
+        <v>28.57411764705882</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1993,13 +1993,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>156</v>
+        <v>304</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>36.11858823529412</v>
+        <v>24.68894117647059</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2022,13 +2022,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>156</v>
+        <v>304</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>22.61926588235294</v>
+        <v>15.46144941176471</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2051,13 +2051,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>287</v>
+        <v>92</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>16.32055529411765</v>
+        <v>13.16105411764706</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2080,13 +2080,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>400</v>
+        <v>226</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>41.16094117647059</v>
+        <v>33.33129411764705</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2112,7 +2112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C2" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="D3" t="n">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2346,16 +2346,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="D6" t="n">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E6" t="n">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C7" t="n">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="D7" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2626,16 +2626,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="E10" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C11" t="n">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2730,566 +2730,6 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>80</v>
-      </c>
-      <c r="D12" t="n">
-        <v>56</v>
-      </c>
-      <c r="E12" t="n">
-        <v>72</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>16</v>
-      </c>
-      <c r="C13" t="n">
-        <v>68</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>109</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>67</v>
-      </c>
-      <c r="E14" t="n">
-        <v>37</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>138</v>
-      </c>
-      <c r="C15" t="n">
-        <v>356</v>
-      </c>
-      <c r="D15" t="n">
-        <v>63</v>
-      </c>
-      <c r="E15" t="n">
-        <v>60</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>72</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11</v>
-      </c>
-      <c r="E16" t="n">
-        <v>80</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>94</v>
-      </c>
-      <c r="C17" t="n">
-        <v>237</v>
-      </c>
-      <c r="D17" t="n">
-        <v>79</v>
-      </c>
-      <c r="E17" t="n">
-        <v>61</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>74</v>
-      </c>
-      <c r="C18" t="n">
-        <v>168</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>78</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>73</v>
-      </c>
-      <c r="C19" t="n">
-        <v>116</v>
-      </c>
-      <c r="D19" t="n">
-        <v>99</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>74</v>
-      </c>
-      <c r="C20" t="n">
-        <v>179</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>120</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>62</v>
-      </c>
-      <c r="C21" t="n">
-        <v>100</v>
-      </c>
-      <c r="D21" t="n">
-        <v>102</v>
-      </c>
-      <c r="E21" t="n">
-        <v>134</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3304,7 +2744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3370,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.125</v>
+        <v>1.75</v>
       </c>
       <c r="C2" t="n">
-        <v>3.999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.02499999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9499999999999997</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3426,16 +2866,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.797499999999999</v>
+        <v>3.229999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>11.495</v>
+        <v>7.979999999999998</v>
       </c>
       <c r="D3" t="n">
-        <v>5.889999999999999</v>
+        <v>5.177499999999998</v>
       </c>
       <c r="E3" t="n">
-        <v>1.52</v>
+        <v>1.6625</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3482,16 +2922,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.777749999999999</v>
+        <v>4.674749999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>7.723499999999998</v>
+        <v>4.132749999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>7.452499999999997</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4742499999999998</v>
+        <v>0.06774999999999998</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3538,16 +2978,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.01825</v>
+        <v>5.33045</v>
       </c>
       <c r="C5" t="n">
-        <v>3.439</v>
+        <v>20.376075</v>
       </c>
       <c r="D5" t="n">
-        <v>2.493275</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>11.6926</v>
+        <v>7.737749999999999</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3594,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9543925</v>
+        <v>4.709364999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>30.508495</v>
+        <v>17.813685</v>
       </c>
       <c r="D6" t="n">
-        <v>13.6162075</v>
+        <v>10.3401275</v>
       </c>
       <c r="E6" t="n">
-        <v>8.497332499999999</v>
+        <v>14.33285</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3650,16 +3090,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.308298</v>
+        <v>8.785481249999998</v>
       </c>
       <c r="C7" t="n">
-        <v>33.61910825</v>
+        <v>18.39094075</v>
       </c>
       <c r="D7" t="n">
-        <v>9.722599249999998</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.09989125</v>
+        <v>2.928493749999999</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3706,16 +3146,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.998964125</v>
+        <v>4.564902124999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3.130218599999999</v>
       </c>
       <c r="D8" t="n">
-        <v>11.21661665</v>
+        <v>2.086812399999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.782140299999998</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3762,16 +3202,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.542991849999998</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>37.87393053499999</v>
+        <v>17.940282885</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5695327899999999</v>
+        <v>4.271495924999999</v>
       </c>
       <c r="E9" t="n">
-        <v>4.556262319999999</v>
+        <v>15.092618935</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3818,16 +3258,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.87328632025</v>
+        <v>12.09844534225</v>
       </c>
       <c r="C10" t="n">
-        <v>35.22332188249999</v>
+        <v>15.46763265275</v>
       </c>
       <c r="D10" t="n">
-        <v>7.044664376499998</v>
+        <v>18.6836750855</v>
       </c>
       <c r="E10" t="n">
-        <v>7.197809254249998</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -3874,16 +3314,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.488491169925</v>
+        <v>11.7237880782</v>
       </c>
       <c r="C11" t="n">
-        <v>41.847410223575</v>
+        <v>7.327367548874999</v>
       </c>
       <c r="D11" t="n">
-        <v>22.7962545965</v>
+        <v>10.583975348375</v>
       </c>
       <c r="E11" t="n">
-        <v>4.070759749375</v>
+        <v>0.32566077995</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3922,566 +3362,6 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>13.7237880782</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9.606651654739998</v>
-      </c>
-      <c r="E12" t="n">
-        <v>12.35140927038</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2.870281854076</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12.198697879823</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>20.32341561780347</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12.49237473754892</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.898774108795674</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>26.60750660303845</v>
-      </c>
-      <c r="C15" t="n">
-        <v>68.6396547150847</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12.14690518834364</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11.56848113175585</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14.29395962229632</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.183799386739715</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15.88217735810702</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>19.14540255619817</v>
-      </c>
-      <c r="C17" t="n">
-        <v>48.27085538105284</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16.09028512701761</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12.42414421200094</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>15.41472138556168</v>
-      </c>
-      <c r="C18" t="n">
-        <v>34.99558368614004</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>16.24794956856502</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>15.51077290582976</v>
-      </c>
-      <c r="C19" t="n">
-        <v>24.64725557638702</v>
-      </c>
-      <c r="D19" t="n">
-        <v>21.03515777639927</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>16.00092432230496</v>
-      </c>
-      <c r="C20" t="n">
-        <v>38.70493856341336</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>25.94744484698102</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>13.61556185384618</v>
-      </c>
-      <c r="C21" t="n">
-        <v>21.96058363523577</v>
-      </c>
-      <c r="D21" t="n">
-        <v>22.39979530794048</v>
-      </c>
-      <c r="E21" t="n">
-        <v>29.42718207121593</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4514,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>706.5</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4522,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1599</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4530,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>616</v>
+        <v>888</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4538,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>538.5</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4546,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3198</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4554,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5583.000000000001</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4562,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6396</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4570,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1154.5</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4578,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3198</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4586,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6920</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4594,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3460</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4602,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5583.000000000001</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4610,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11014</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4618,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6396</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4626,7 +3506,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1599</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4634,7 +3514,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5772.5</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4642,7 +3522,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7444.000000000001</v>
+        <v>4521</v>
       </c>
     </row>
   </sheetData>
@@ -4722,7 +3602,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4781,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4840,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4958,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5017,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -5076,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5135,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5194,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5253,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5312,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5371,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5430,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -5489,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5666,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/03_NonStationary.xlsx
+++ b/Instances/03_NonStationary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -46,7 +46,10 @@
     <t>NonStationary</t>
   </si>
   <si>
-    <t>NrTimeBucketWithoutUncertainty</t>
+    <t>NrTimeBucketWithoutUncertaintyBefore</t>
+  </si>
+  <si>
+    <t>NrTimeBucketWithoutUncertaintyAfter</t>
   </si>
   <si>
     <t>Dist_0001</t>
@@ -470,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -536,6 +539,14 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -560,60 +571,60 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -669,7 +680,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -725,7 +736,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -781,7 +792,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -837,7 +848,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -893,7 +904,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -949,7 +960,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1005,7 +1016,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1061,7 +1072,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -1117,7 +1128,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1173,7 +1184,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -1229,7 +1240,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -1285,7 +1296,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1341,7 +1352,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1397,7 +1408,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -1453,7 +1464,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -1509,7 +1520,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -1584,45 +1595,45 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>14.90823529411765</v>
+        <v>15.296</v>
       </c>
       <c r="F2" t="n">
         <v>11</v>
@@ -1639,19 +1650,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>42.20780235294118</v>
+        <v>13.15199999999996</v>
       </c>
       <c r="F3" t="n">
         <v>16.412</v>
@@ -1668,19 +1679,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>17.39226352941176</v>
+        <v>10.84000000000001</v>
       </c>
       <c r="F4" t="n">
         <v>16.648</v>
@@ -1697,19 +1708,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>19.46808282352941</v>
+        <v>9.364368000000004</v>
       </c>
       <c r="F5" t="n">
         <v>16.9896</v>
@@ -1726,7 +1737,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1738,7 +1749,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>24.68894117647059</v>
+        <v>26.304</v>
       </c>
       <c r="F6" t="n">
         <v>9.600000000000001</v>
@@ -1755,7 +1766,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1767,7 +1778,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>33.33129411764705</v>
+        <v>27.37999999999999</v>
       </c>
       <c r="F7" t="n">
         <v>9.4</v>
@@ -1784,7 +1795,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1796,7 +1807,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>40.66474352941177</v>
+        <v>4.384000000000004</v>
       </c>
       <c r="F8" t="n">
         <v>15.812</v>
@@ -1813,7 +1824,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1825,7 +1836,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>34.27832470588235</v>
+        <v>4.276800000000003</v>
       </c>
       <c r="F9" t="n">
         <v>15.648</v>
@@ -1842,19 +1853,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>304</v>
+        <v>490</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>11.31576470588235</v>
+        <v>96.44799999999999</v>
       </c>
       <c r="F10" t="n">
         <v>4.4</v>
@@ -1871,19 +1882,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>530</v>
+        <v>876</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>14.68235294117647</v>
+        <v>118.32</v>
       </c>
       <c r="F11" t="n">
         <v>2.4</v>
@@ -1900,19 +1911,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>530</v>
+        <v>876</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>9.788235294117648</v>
+        <v>78.88</v>
       </c>
       <c r="F12" t="n">
         <v>1.6</v>
@@ -1929,19 +1940,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>15.60188235294117</v>
+        <v>120.472</v>
       </c>
       <c r="F13" t="n">
         <v>4.4</v>
@@ -1958,7 +1969,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -1970,7 +1981,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>28.57411764705882</v>
+        <v>238.44</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
@@ -1987,19 +1998,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>304</v>
+        <v>490</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>24.68894117647059</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>9.600000000000001</v>
@@ -2016,19 +2027,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>304</v>
+        <v>490</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>15.46144941176471</v>
+        <v>0.2630400000000197</v>
       </c>
       <c r="F16" t="n">
         <v>6.012</v>
@@ -2045,19 +2056,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>92</v>
+        <v>295</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>13.16105411764706</v>
+        <v>0.1425600000000041</v>
       </c>
       <c r="F17" t="n">
         <v>6.008</v>
@@ -2074,19 +2085,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>33.33129411764705</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>9.4</v>
@@ -2122,55 +2133,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2178,16 +2189,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2234,16 +2245,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C3" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2290,16 +2301,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2346,16 +2357,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>237</v>
+        <v>389</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2402,16 +2413,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2458,16 +2469,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2514,16 +2525,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="E8" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2570,16 +2581,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2626,16 +2637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C10" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2682,16 +2693,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2754,55 +2765,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2810,16 +2821,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.75</v>
+        <v>1.425</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.474999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02499999999999999</v>
+        <v>1.775</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.9249999999999998</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2866,16 +2877,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.229999999999999</v>
+        <v>4.654999999999998</v>
       </c>
       <c r="C3" t="n">
-        <v>7.979999999999998</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.177499999999998</v>
+        <v>1.757499999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>1.6625</v>
+        <v>3.039999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2922,16 +2933,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.674749999999999</v>
+        <v>3.522999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>4.132749999999999</v>
+        <v>6.165249999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.097499999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06774999999999998</v>
+        <v>4.268249999999998</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2978,16 +2989,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.33045</v>
+        <v>3.181075</v>
       </c>
       <c r="C5" t="n">
-        <v>20.376075</v>
+        <v>33.444275</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.778575</v>
       </c>
       <c r="E5" t="n">
-        <v>7.737749999999999</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3034,16 +3045,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.709364999999999</v>
+        <v>6.040272499999999</v>
       </c>
       <c r="C6" t="n">
-        <v>17.813685</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>10.3401275</v>
+        <v>1.63804</v>
       </c>
       <c r="E6" t="n">
-        <v>14.33285</v>
+        <v>3.480834999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3090,16 +3101,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.785481249999998</v>
+        <v>1.99137575</v>
       </c>
       <c r="C7" t="n">
-        <v>18.39094075</v>
+        <v>16.868124</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3.865611749999999</v>
       </c>
       <c r="E7" t="n">
-        <v>2.928493749999999</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3146,16 +3157,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.564902124999999</v>
+        <v>10.303636225</v>
       </c>
       <c r="C8" t="n">
-        <v>3.130218599999999</v>
+        <v>32.47601797499999</v>
       </c>
       <c r="D8" t="n">
-        <v>2.086812399999999</v>
+        <v>10.303636225</v>
       </c>
       <c r="E8" t="n">
-        <v>6.782140299999998</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3202,16 +3213,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1.2814487775</v>
       </c>
       <c r="C9" t="n">
-        <v>17.940282885</v>
+        <v>8.258225454999998</v>
       </c>
       <c r="D9" t="n">
-        <v>4.271495924999999</v>
+        <v>1.13906558</v>
       </c>
       <c r="E9" t="n">
-        <v>15.092618935</v>
+        <v>8.970141442499999</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3258,16 +3269,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.09844534225</v>
+        <v>9.188692664999998</v>
       </c>
       <c r="C10" t="n">
-        <v>15.46763265275</v>
+        <v>3.981766821499999</v>
       </c>
       <c r="D10" t="n">
-        <v>18.6836750855</v>
+        <v>9.188692664999998</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>13.476749242</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -3314,16 +3325,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.7237880782</v>
+        <v>1.62830389975</v>
       </c>
       <c r="C11" t="n">
-        <v>7.327367548874999</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>10.583975348375</v>
+        <v>1.791134289725</v>
       </c>
       <c r="E11" t="n">
-        <v>0.32566077995</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3376,7 +3387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3394,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2880</v>
+        <v>1022.32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3402,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4372</v>
+        <v>4069.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3410,7 +3421,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>888</v>
+        <v>1780.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3418,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>487</v>
+        <v>17687.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,103 +3437,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4655</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4521</v>
+        <v>61845.79999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3536,7 +3451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3544,7 +3459,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -3560,993 +3475,345 @@
       <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="B3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="B4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="B5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>2</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>2</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
